--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1074,10 +1074,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1102,7 +1102,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1177,7 +1177,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1280,7 +1280,7 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
@@ -1305,10 +1305,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1382,10 +1382,10 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1410,10 +1410,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1488,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1516,7 +1516,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1591,7 +1591,7 @@
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
@@ -1619,7 +1619,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1696,7 +1696,7 @@
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1724,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1801,7 +1801,7 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
@@ -1829,7 +1829,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1904,7 +1904,7 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -1932,7 +1932,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2009,7 +2009,7 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
@@ -2037,7 +2037,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2116,7 +2116,7 @@
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
@@ -2144,7 +2144,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2221,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2249,7 +2249,7 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2326,7 +2326,7 @@
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2354,7 +2354,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2431,7 +2431,7 @@
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2459,7 +2459,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2538,7 +2538,7 @@
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2566,7 +2566,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2645,7 +2645,7 @@
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
